--- a/設計整理_.xlsx
+++ b/設計整理_.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60a3035e3d99f22e/ドキュメント/GitHub/Web_api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="8_{5FA4E823-0FA8-40C4-A062-22646CB94C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CCF9ACE-1EDA-4B4A-BF46-15C72959D598}"/>
+  <xr:revisionPtr revIDLastSave="293" documentId="8_{5FA4E823-0FA8-40C4-A062-22646CB94C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30C42F1E-4D0C-4E23-93DF-F84C45B2C83D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="整理" sheetId="1" r:id="rId1"/>
-    <sheet name="DB" sheetId="3" r:id="rId2"/>
-    <sheet name="CRUD" sheetId="4" r:id="rId3"/>
-    <sheet name="Enum" sheetId="2" r:id="rId4"/>
+    <sheet name="イメージ" sheetId="5" r:id="rId2"/>
+    <sheet name="DB" sheetId="3" r:id="rId3"/>
+    <sheet name="CRUD" sheetId="4" r:id="rId4"/>
+    <sheet name="Enum" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="157">
   <si>
     <t>文書と文書属性の登録</t>
     <rPh sb="0" eb="2">
@@ -136,16 +137,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・そのキーに対する値</t>
-    <rPh sb="6" eb="7">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>出力</t>
     <rPh sb="0" eb="2">
       <t>シュツリョク</t>
@@ -179,10 +170,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・文書の属性(ファイル名)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ファイル名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -190,33 +177,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>任意のキー</t>
-    <rPh sb="0" eb="2">
-      <t>ニンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・任意のキーがあれば、そのキーのチェック</t>
-    <rPh sb="1" eb="3">
-      <t>ニンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・任意のキーと値の照合</t>
-    <rPh sb="1" eb="3">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ショウゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・指定キーでのチェック</t>
     <rPh sb="1" eb="3">
       <t>シテイ</t>
@@ -264,23 +224,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・変更された内容</t>
-    <rPh sb="1" eb="3">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・任意のキー</t>
-    <rPh sb="1" eb="3">
-      <t>ニンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>△</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -374,13 +317,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>文書ごとエンドポイント</t>
-    <rPh sb="0" eb="2">
-      <t>ブンショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>pdf</t>
   </si>
   <si>
@@ -416,26 +352,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/pdf</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/word</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/excel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/image</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/movie</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>POST</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -449,19 +365,6 @@
   </si>
   <si>
     <t>https://domain/api/v1/documents/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・文書の属性(ファイル名、mime_type)</t>
-    <rPh sb="1" eb="3">
-      <t>ブンショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>メイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -475,23 +378,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・任意のキーがあれば</t>
-    <rPh sb="1" eb="3">
-      <t>ニンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・任意のキーと値</t>
-    <rPh sb="1" eb="3">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・アップロードするファイル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -597,14 +483,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>optional_key</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>optional_access_value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テーブル名：Documents</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -644,41 +522,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テーブル名：pdfs</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テーブル名：words</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テーブル名：excels</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テーブル名：images</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テーブル名：movies</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Documents</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -723,52 +566,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/pdfs(words/excels/images/movies)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/pdfs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/pdfs/search/: key/: value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/pdfs/: key/: value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PATCH</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/pdfs/download/: key/: value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*pdfs(words/excels/images/movies)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ファイルの説明文</t>
-    <rPh sb="6" eb="9">
-      <t>セツメイブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイル説明文</t>
-    <rPh sb="4" eb="7">
-      <t>セツメイブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>explanation</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -778,16 +579,6 @@
   </si>
   <si>
     <t>ドキュメントNo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>任意の値</t>
-    <rPh sb="0" eb="2">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>アタイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -953,7 +744,163 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>document_number</t>
+    <t>/register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/update/: key/: value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/update/attribute/: key/: value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/download/: key/: value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/delete/: key/: value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/search/: optional_key/: optional_value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>document_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>document_value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・文書詳細表示</t>
+    <rPh sb="1" eb="3">
+      <t>ブンショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・登録したファイルの内容</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・文書のキー</t>
+    <rPh sb="1" eb="3">
+      <t>ブンショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・文書の番号</t>
+    <rPh sb="1" eb="3">
+      <t>ブンショ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・属性の入力があれば、そのキーと値</t>
+    <rPh sb="1" eb="3">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・文書属性のキー</t>
+    <rPh sb="1" eb="3">
+      <t>ブンショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・文書属性の値</t>
+    <rPh sb="1" eb="3">
+      <t>ブンショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文書属性キー</t>
+    <rPh sb="0" eb="2">
+      <t>ブンショ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文書属性値</t>
+    <rPh sb="0" eb="4">
+      <t>ブンショゾクセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文書属性の登録、更新処理</t>
+    <rPh sb="0" eb="4">
+      <t>ブンショゾクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名： attributes</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attribute_key</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attribute_value</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1370,6 +1317,3137 @@
 </styleSheet>
 </file>
 
+<file path=xl/diagrams/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/data1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{DEDFA96E-72E5-45E9-9E39-496CB70304E3}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/radial3" loCatId="relationship" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A477DB6D-B6B3-403F-B2F8-1E23FBDC4848}">
+      <dgm:prSet phldrT="[テキスト]" custT="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:latin typeface="HackGen35 Console"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>何をしたいか？</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AB896D57-7892-4376-8C71-197777C0D212}" type="parTrans" cxnId="{6981921A-353F-4D0B-A43A-F85B444FCE18}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="HackGen35 Console"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B86F44F9-194A-4D97-AA0D-2AC360617E63}" type="sibTrans" cxnId="{6981921A-353F-4D0B-A43A-F85B444FCE18}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="HackGen35 Console"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{46485A33-D80C-4C9A-9837-90A87D4A6473}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
+              <a:latin typeface="HackGen35 Console"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>文書をすぐ使えるようにしたい</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{60FCE933-ACC9-4784-AFB9-0BF3BBFA15E2}" type="parTrans" cxnId="{A1457285-2469-44C5-8233-9345C8313492}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="HackGen35 Console"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{04FE9A6D-1B22-4567-B5D2-98869B670BDB}" type="sibTrans" cxnId="{A1457285-2469-44C5-8233-9345C8313492}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="HackGen35 Console"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E044127A-57AC-4D61-B61E-70A45A06B5CF}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
+              <a:latin typeface="HackGen35 Console"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>文書を同じところで管理したい</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{82921794-0177-459D-BB0C-5F8C890B47B1}" type="parTrans" cxnId="{7A9DF0EC-CBF2-4608-8D0B-C1716864EE52}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="HackGen35 Console"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4E283C0C-2EF6-4615-B132-9C64F86B7316}" type="sibTrans" cxnId="{7A9DF0EC-CBF2-4608-8D0B-C1716864EE52}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="HackGen35 Console"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C7B7C703-25E4-4B69-A8CF-15FE3567177E}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
+              <a:latin typeface="HackGen35 Console"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>文書をほかの人でも見れるようにしたい</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5C5428CF-EFC9-409A-AE66-12968F5820B0}" type="parTrans" cxnId="{A274B91C-77AB-4FE8-AB86-03C0FF710319}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="HackGen35 Console"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{17D33EB0-9F6F-4F7D-A81B-D718F733A52F}" type="sibTrans" cxnId="{A274B91C-77AB-4FE8-AB86-03C0FF710319}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="HackGen35 Console"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1FF7DB3C-DD13-4EF7-AABE-7300306E8339}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
+              <a:latin typeface="HackGen35 Console"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>文書が不要なら削除できる</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1C37D3B8-0C90-4070-BC37-E130D6AD03A4}" type="parTrans" cxnId="{EC8FFF7B-1446-4C8B-9FF9-9ED374DD7202}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="HackGen35 Console"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8E24F813-C4D9-43F6-B280-6BD45FCFA272}" type="sibTrans" cxnId="{EC8FFF7B-1446-4C8B-9FF9-9ED374DD7202}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="HackGen35 Console"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{77C79C86-4135-4C7F-A411-914A1C184969}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
+              <a:latin typeface="HackGen35 Console"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>文書を探したい</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{420CC2EF-6169-4C7E-9B1A-58F1C87ACFBE}" type="parTrans" cxnId="{40C271B4-2FFA-42FE-8981-9B8FF778C8D0}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="HackGen35 Console"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{418470F7-4986-4213-804F-F6EF59DD564D}" type="sibTrans" cxnId="{40C271B4-2FFA-42FE-8981-9B8FF778C8D0}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="HackGen35 Console"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1EF55FF7-893E-42B5-807C-7B2E5601E586}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
+              <a:latin typeface="HackGen35 Console"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>文書の中身を更新したい</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6AC6FDE8-7C10-4C63-8322-44DB3C43E0A4}" type="parTrans" cxnId="{0628D5E8-132D-47E1-A141-6772C721836F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="HackGen35 Console"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9471369C-C4F0-480C-90A1-36B9B3EDE94B}" type="sibTrans" cxnId="{0628D5E8-132D-47E1-A141-6772C721836F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="HackGen35 Console"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4C204CA8-590A-4556-B0FD-112951FD8D55}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
+              <a:latin typeface="HackGen35 Console"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>文書を検索しやすいようにキーワードを設定したい</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{38176EEE-547A-4FF4-BCDB-F7A0BA6A9565}" type="parTrans" cxnId="{4E3C67FF-9B9E-4D5D-9E9C-7841DC449EBD}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="HackGen35 Console"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AF1EE14C-F5E8-4019-843F-AAE1BCF5FB46}" type="sibTrans" cxnId="{4E3C67FF-9B9E-4D5D-9E9C-7841DC449EBD}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US">
+            <a:latin typeface="HackGen35 Console"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2BA696F3-CA50-4227-9C49-CA660FB9B718}" type="pres">
+      <dgm:prSet presAssocID="{DEDFA96E-72E5-45E9-9E39-496CB70304E3}" presName="composite" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:chMax val="1"/>
+          <dgm:dir/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A9E370AF-86E7-4CF5-BB6E-9E3347BB4C08}" type="pres">
+      <dgm:prSet presAssocID="{DEDFA96E-72E5-45E9-9E39-496CB70304E3}" presName="radial" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:animLvl val="ctr"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{613C7998-B578-4F9B-8B0B-B851173DCBAF}" type="pres">
+      <dgm:prSet presAssocID="{A477DB6D-B6B3-403F-B2F8-1E23FBDC4848}" presName="centerShape" presStyleLbl="vennNode1" presStyleIdx="0" presStyleCnt="8"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E72BD720-83F6-452B-9ED6-319F9A631F91}" type="pres">
+      <dgm:prSet presAssocID="{46485A33-D80C-4C9A-9837-90A87D4A6473}" presName="node" presStyleLbl="vennNode1" presStyleIdx="1" presStyleCnt="8">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CFC2C32B-8197-4447-9522-09FCF3C83D8A}" type="pres">
+      <dgm:prSet presAssocID="{77C79C86-4135-4C7F-A411-914A1C184969}" presName="node" presStyleLbl="vennNode1" presStyleIdx="2" presStyleCnt="8">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6038407C-6DCA-49A5-A8E7-D69B2F8BC5A5}" type="pres">
+      <dgm:prSet presAssocID="{E044127A-57AC-4D61-B61E-70A45A06B5CF}" presName="node" presStyleLbl="vennNode1" presStyleIdx="3" presStyleCnt="8">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{817B3928-B48D-48DD-B119-EDFE44A65E06}" type="pres">
+      <dgm:prSet presAssocID="{C7B7C703-25E4-4B69-A8CF-15FE3567177E}" presName="node" presStyleLbl="vennNode1" presStyleIdx="4" presStyleCnt="8">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C3EDEBE0-BD33-43E4-A47C-69B41F96D48B}" type="pres">
+      <dgm:prSet presAssocID="{1FF7DB3C-DD13-4EF7-AABE-7300306E8339}" presName="node" presStyleLbl="vennNode1" presStyleIdx="5" presStyleCnt="8">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{05D7A53B-6D98-42D7-993D-399BFF5499A2}" type="pres">
+      <dgm:prSet presAssocID="{1EF55FF7-893E-42B5-807C-7B2E5601E586}" presName="node" presStyleLbl="vennNode1" presStyleIdx="6" presStyleCnt="8">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9C1597A5-04D1-4634-B55E-FDFEFD56D755}" type="pres">
+      <dgm:prSet presAssocID="{4C204CA8-590A-4556-B0FD-112951FD8D55}" presName="node" presStyleLbl="vennNode1" presStyleIdx="7" presStyleCnt="8">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{457ECB03-4095-47B0-9315-56857839A274}" type="presOf" srcId="{1EF55FF7-893E-42B5-807C-7B2E5601E586}" destId="{05D7A53B-6D98-42D7-993D-399BFF5499A2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/radial3"/>
+    <dgm:cxn modelId="{4F062104-8D37-4ADB-A610-699F6F7FECF2}" type="presOf" srcId="{DEDFA96E-72E5-45E9-9E39-496CB70304E3}" destId="{2BA696F3-CA50-4227-9C49-CA660FB9B718}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/radial3"/>
+    <dgm:cxn modelId="{6EE4BC12-0D2D-4C52-B0A3-09CAFE2949F2}" type="presOf" srcId="{E044127A-57AC-4D61-B61E-70A45A06B5CF}" destId="{6038407C-6DCA-49A5-A8E7-D69B2F8BC5A5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/radial3"/>
+    <dgm:cxn modelId="{6981921A-353F-4D0B-A43A-F85B444FCE18}" srcId="{DEDFA96E-72E5-45E9-9E39-496CB70304E3}" destId="{A477DB6D-B6B3-403F-B2F8-1E23FBDC4848}" srcOrd="0" destOrd="0" parTransId="{AB896D57-7892-4376-8C71-197777C0D212}" sibTransId="{B86F44F9-194A-4D97-AA0D-2AC360617E63}"/>
+    <dgm:cxn modelId="{A274B91C-77AB-4FE8-AB86-03C0FF710319}" srcId="{A477DB6D-B6B3-403F-B2F8-1E23FBDC4848}" destId="{C7B7C703-25E4-4B69-A8CF-15FE3567177E}" srcOrd="3" destOrd="0" parTransId="{5C5428CF-EFC9-409A-AE66-12968F5820B0}" sibTransId="{17D33EB0-9F6F-4F7D-A81B-D718F733A52F}"/>
+    <dgm:cxn modelId="{EA592B3A-B995-47D5-B22C-17110E613311}" type="presOf" srcId="{C7B7C703-25E4-4B69-A8CF-15FE3567177E}" destId="{817B3928-B48D-48DD-B119-EDFE44A65E06}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/radial3"/>
+    <dgm:cxn modelId="{5BB26B67-D2E9-46A3-9A55-4DFFC3ED74F4}" type="presOf" srcId="{77C79C86-4135-4C7F-A411-914A1C184969}" destId="{CFC2C32B-8197-4447-9522-09FCF3C83D8A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/radial3"/>
+    <dgm:cxn modelId="{EC8FFF7B-1446-4C8B-9FF9-9ED374DD7202}" srcId="{A477DB6D-B6B3-403F-B2F8-1E23FBDC4848}" destId="{1FF7DB3C-DD13-4EF7-AABE-7300306E8339}" srcOrd="4" destOrd="0" parTransId="{1C37D3B8-0C90-4070-BC37-E130D6AD03A4}" sibTransId="{8E24F813-C4D9-43F6-B280-6BD45FCFA272}"/>
+    <dgm:cxn modelId="{A1457285-2469-44C5-8233-9345C8313492}" srcId="{A477DB6D-B6B3-403F-B2F8-1E23FBDC4848}" destId="{46485A33-D80C-4C9A-9837-90A87D4A6473}" srcOrd="0" destOrd="0" parTransId="{60FCE933-ACC9-4784-AFB9-0BF3BBFA15E2}" sibTransId="{04FE9A6D-1B22-4567-B5D2-98869B670BDB}"/>
+    <dgm:cxn modelId="{F836A89D-5F49-4539-8475-98AF161071E7}" type="presOf" srcId="{1FF7DB3C-DD13-4EF7-AABE-7300306E8339}" destId="{C3EDEBE0-BD33-43E4-A47C-69B41F96D48B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/radial3"/>
+    <dgm:cxn modelId="{40C271B4-2FFA-42FE-8981-9B8FF778C8D0}" srcId="{A477DB6D-B6B3-403F-B2F8-1E23FBDC4848}" destId="{77C79C86-4135-4C7F-A411-914A1C184969}" srcOrd="1" destOrd="0" parTransId="{420CC2EF-6169-4C7E-9B1A-58F1C87ACFBE}" sibTransId="{418470F7-4986-4213-804F-F6EF59DD564D}"/>
+    <dgm:cxn modelId="{4AB9AEDD-CDD7-4D54-B714-0DA97F5F1A6A}" type="presOf" srcId="{A477DB6D-B6B3-403F-B2F8-1E23FBDC4848}" destId="{613C7998-B578-4F9B-8B0B-B851173DCBAF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/radial3"/>
+    <dgm:cxn modelId="{0628D5E8-132D-47E1-A141-6772C721836F}" srcId="{A477DB6D-B6B3-403F-B2F8-1E23FBDC4848}" destId="{1EF55FF7-893E-42B5-807C-7B2E5601E586}" srcOrd="5" destOrd="0" parTransId="{6AC6FDE8-7C10-4C63-8322-44DB3C43E0A4}" sibTransId="{9471369C-C4F0-480C-90A1-36B9B3EDE94B}"/>
+    <dgm:cxn modelId="{2C24CEE9-B54A-41CC-8B03-262F6F4EC8A2}" type="presOf" srcId="{4C204CA8-590A-4556-B0FD-112951FD8D55}" destId="{9C1597A5-04D1-4634-B55E-FDFEFD56D755}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/radial3"/>
+    <dgm:cxn modelId="{7A9DF0EC-CBF2-4608-8D0B-C1716864EE52}" srcId="{A477DB6D-B6B3-403F-B2F8-1E23FBDC4848}" destId="{E044127A-57AC-4D61-B61E-70A45A06B5CF}" srcOrd="2" destOrd="0" parTransId="{82921794-0177-459D-BB0C-5F8C890B47B1}" sibTransId="{4E283C0C-2EF6-4615-B132-9C64F86B7316}"/>
+    <dgm:cxn modelId="{8D07E8F5-03D7-470A-B126-17999897DFCD}" type="presOf" srcId="{46485A33-D80C-4C9A-9837-90A87D4A6473}" destId="{E72BD720-83F6-452B-9ED6-319F9A631F91}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/radial3"/>
+    <dgm:cxn modelId="{4E3C67FF-9B9E-4D5D-9E9C-7841DC449EBD}" srcId="{A477DB6D-B6B3-403F-B2F8-1E23FBDC4848}" destId="{4C204CA8-590A-4556-B0FD-112951FD8D55}" srcOrd="6" destOrd="0" parTransId="{38176EEE-547A-4FF4-BCDB-F7A0BA6A9565}" sibTransId="{AF1EE14C-F5E8-4019-843F-AAE1BCF5FB46}"/>
+    <dgm:cxn modelId="{965FC02E-4BBC-4EA9-BC85-792C14D59B97}" type="presParOf" srcId="{2BA696F3-CA50-4227-9C49-CA660FB9B718}" destId="{A9E370AF-86E7-4CF5-BB6E-9E3347BB4C08}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/radial3"/>
+    <dgm:cxn modelId="{3A0A42EC-35D3-45BA-B1DA-E361BBF3E401}" type="presParOf" srcId="{A9E370AF-86E7-4CF5-BB6E-9E3347BB4C08}" destId="{613C7998-B578-4F9B-8B0B-B851173DCBAF}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/radial3"/>
+    <dgm:cxn modelId="{3130A09F-6336-4497-B595-F144E8DC5C5E}" type="presParOf" srcId="{A9E370AF-86E7-4CF5-BB6E-9E3347BB4C08}" destId="{E72BD720-83F6-452B-9ED6-319F9A631F91}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/radial3"/>
+    <dgm:cxn modelId="{6A3D15A1-7D77-4FF6-B184-BBA59058D955}" type="presParOf" srcId="{A9E370AF-86E7-4CF5-BB6E-9E3347BB4C08}" destId="{CFC2C32B-8197-4447-9522-09FCF3C83D8A}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/radial3"/>
+    <dgm:cxn modelId="{42107042-1769-460D-94F1-7F443B8AD4E4}" type="presParOf" srcId="{A9E370AF-86E7-4CF5-BB6E-9E3347BB4C08}" destId="{6038407C-6DCA-49A5-A8E7-D69B2F8BC5A5}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/radial3"/>
+    <dgm:cxn modelId="{6B662727-DF51-4AB3-8BF9-CBBEE22A5BBE}" type="presParOf" srcId="{A9E370AF-86E7-4CF5-BB6E-9E3347BB4C08}" destId="{817B3928-B48D-48DD-B119-EDFE44A65E06}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/radial3"/>
+    <dgm:cxn modelId="{D205661C-DD3E-431C-9642-9D4AEB89D540}" type="presParOf" srcId="{A9E370AF-86E7-4CF5-BB6E-9E3347BB4C08}" destId="{C3EDEBE0-BD33-43E4-A47C-69B41F96D48B}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/radial3"/>
+    <dgm:cxn modelId="{671FC7FB-D76F-4B08-8E71-EB9B91FD1E63}" type="presParOf" srcId="{A9E370AF-86E7-4CF5-BB6E-9E3347BB4C08}" destId="{05D7A53B-6D98-42D7-993D-399BFF5499A2}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/radial3"/>
+    <dgm:cxn modelId="{6A1232CC-DCFF-4FFD-85FB-650469EB2DB6}" type="presParOf" srcId="{A9E370AF-86E7-4CF5-BB6E-9E3347BB4C08}" destId="{9C1597A5-04D1-4634-B55E-FDFEFD56D755}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/radial3"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId5" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{613C7998-B578-4F9B-8B0B-B851173DCBAF}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1882871" y="988563"/>
+          <a:ext cx="2364547" cy="2364547"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="22860" tIns="22860" rIns="22860" bIns="22860" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="800100">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" kern="1200">
+              <a:latin typeface="HackGen35 Console"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>何をしたいか？</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2229151" y="1334843"/>
+        <a:ext cx="1671987" cy="1671987"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{E72BD720-83F6-452B-9ED6-319F9A631F91}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2474008" y="38967"/>
+          <a:ext cx="1182273" cy="1182273"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="12700" rIns="12700" bIns="12700" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" kern="1200">
+              <a:latin typeface="HackGen35 Console"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>文書をすぐ使えるようにしたい</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2647148" y="212107"/>
+        <a:ext cx="835993" cy="835993"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{CFC2C32B-8197-4447-9522-09FCF3C83D8A}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3678601" y="619069"/>
+          <a:ext cx="1182273" cy="1182273"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="12700" rIns="12700" bIns="12700" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" kern="1200">
+              <a:latin typeface="HackGen35 Console"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>文書を探したい</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3851741" y="792209"/>
+        <a:ext cx="835993" cy="835993"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{6038407C-6DCA-49A5-A8E7-D69B2F8BC5A5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3976111" y="1922546"/>
+          <a:ext cx="1182273" cy="1182273"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="12700" rIns="12700" bIns="12700" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" kern="1200">
+              <a:latin typeface="HackGen35 Console"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>文書を同じところで管理したい</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4149251" y="2095686"/>
+        <a:ext cx="835993" cy="835993"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{817B3928-B48D-48DD-B119-EDFE44A65E06}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3142507" y="2967853"/>
+          <a:ext cx="1182273" cy="1182273"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="12700" rIns="12700" bIns="12700" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" kern="1200">
+              <a:latin typeface="HackGen35 Console"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>文書をほかの人でも見れるようにしたい</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3315647" y="3140993"/>
+        <a:ext cx="835993" cy="835993"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C3EDEBE0-BD33-43E4-A47C-69B41F96D48B}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1805508" y="2967853"/>
+          <a:ext cx="1182273" cy="1182273"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="12700" rIns="12700" bIns="12700" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" kern="1200">
+              <a:latin typeface="HackGen35 Console"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>文書が不要なら削除できる</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1978648" y="3140993"/>
+        <a:ext cx="835993" cy="835993"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{05D7A53B-6D98-42D7-993D-399BFF5499A2}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="971904" y="1922546"/>
+          <a:ext cx="1182273" cy="1182273"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="12700" rIns="12700" bIns="12700" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" kern="1200">
+              <a:latin typeface="HackGen35 Console"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>文書の中身を更新したい</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1145044" y="2095686"/>
+        <a:ext cx="835993" cy="835993"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{9C1597A5-04D1-4634-B55E-FDFEFD56D755}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1269414" y="619069"/>
+          <a:ext cx="1182273" cy="1182273"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="12700" tIns="12700" rIns="12700" bIns="12700" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="444500">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" kern="1200">
+              <a:latin typeface="HackGen35 Console"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>文書を検索しやすいようにキーワードを設定したい</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1442554" y="792209"/>
+        <a:ext cx="835993" cy="835993"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/radial3">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="relationship" pri="31000"/>
+    <dgm:cat type="cycle" pri="12000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="11">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="12">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="13">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="14">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="2" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="3" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="4" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="1" destId="13" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="1" destId="14" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="11"/>
+        <dgm:pt modelId="12"/>
+        <dgm:pt modelId="13"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="2" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="15" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="16" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="17" srcId="1" destId="13" srcOrd="2" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="11"/>
+        <dgm:pt modelId="12"/>
+        <dgm:pt modelId="13"/>
+        <dgm:pt modelId="14"/>
+        <dgm:pt modelId="15"/>
+        <dgm:pt modelId="16"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="2" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="16" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="17" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="18" srcId="1" destId="13" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="19" srcId="1" destId="14" srcOrd="3" destOrd="0"/>
+        <dgm:cxn modelId="20" srcId="1" destId="15" srcOrd="4" destOrd="0"/>
+        <dgm:cxn modelId="21" srcId="1" destId="16" srcOrd="5" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="composite">
+    <dgm:varLst>
+      <dgm:chMax val="1"/>
+      <dgm:dir/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:alg type="composite">
+      <dgm:param type="ar" val="1"/>
+    </dgm:alg>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst/>
+    <dgm:ruleLst/>
+    <dgm:layoutNode name="radial">
+      <dgm:varLst>
+        <dgm:animLvl val="ctr"/>
+      </dgm:varLst>
+      <dgm:choose name="Name0">
+        <dgm:if name="Name1" func="var" arg="dir" op="equ" val="norm">
+          <dgm:choose name="Name2">
+            <dgm:if name="Name3" axis="ch ch" ptType="node node" st="1 1" cnt="1 0" func="cnt" op="lte" val="1">
+              <dgm:alg type="cycle">
+                <dgm:param type="stAng" val="90"/>
+                <dgm:param type="spanAng" val="360"/>
+                <dgm:param type="ctrShpMap" val="fNode"/>
+              </dgm:alg>
+            </dgm:if>
+            <dgm:else name="Name4">
+              <dgm:alg type="cycle">
+                <dgm:param type="stAng" val="0"/>
+                <dgm:param type="spanAng" val="360"/>
+                <dgm:param type="ctrShpMap" val="fNode"/>
+              </dgm:alg>
+            </dgm:else>
+          </dgm:choose>
+        </dgm:if>
+        <dgm:else name="Name5">
+          <dgm:alg type="cycle">
+            <dgm:param type="stAng" val="0"/>
+            <dgm:param type="spanAng" val="-360"/>
+            <dgm:param type="ctrShpMap" val="fNode"/>
+          </dgm:alg>
+        </dgm:else>
+      </dgm:choose>
+      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+        <dgm:adjLst/>
+      </dgm:shape>
+      <dgm:presOf/>
+      <dgm:constrLst>
+        <dgm:constr type="w" for="ch" forName="centerShape" refType="w"/>
+        <dgm:constr type="h" for="ch" forName="centerShape" refType="h"/>
+        <dgm:constr type="w" for="ch" forName="node" refType="w" fact="0.5"/>
+        <dgm:constr type="h" for="ch" forName="node" refType="h" fact="0.5"/>
+        <dgm:constr type="sp" refType="w" refFor="ch" refForName="node" fact="-0.2"/>
+        <dgm:constr type="sibSp" refType="w" refFor="ch" refForName="node" fact="-0.2"/>
+        <dgm:constr type="primFontSz" for="ch" forName="centerShape" val="65"/>
+        <dgm:constr type="primFontSz" for="des" forName="node" val="65"/>
+        <dgm:constr type="primFontSz" for="ch" forName="node" refType="primFontSz" refFor="ch" refForName="centerShape" op="lte"/>
+      </dgm:constrLst>
+      <dgm:ruleLst/>
+      <dgm:forEach name="Name6" axis="ch" ptType="node" cnt="1">
+        <dgm:layoutNode name="centerShape" styleLbl="vennNode1">
+          <dgm:alg type="tx"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="self"/>
+          <dgm:constrLst>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.1"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.1"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.1"/>
+            <dgm:constr type="rMarg" refType="primFontSz" fact="0.1"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:forEach name="Name7" axis="ch" ptType="node">
+          <dgm:layoutNode name="node" styleLbl="vennNode1">
+            <dgm:varLst>
+              <dgm:bulletEnabled val="1"/>
+            </dgm:varLst>
+            <dgm:alg type="tx">
+              <dgm:param type="txAnchorVertCh" val="mid"/>
+            </dgm:alg>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="ellipse" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf axis="desOrSelf" ptType="node"/>
+            <dgm:constrLst>
+              <dgm:constr type="tMarg" refType="primFontSz" fact="0.1"/>
+              <dgm:constr type="bMarg" refType="primFontSz" fact="0.1"/>
+              <dgm:constr type="lMarg" refType="primFontSz" fact="0.1"/>
+              <dgm:constr type="rMarg" refType="primFontSz" fact="0.1"/>
+            </dgm:constrLst>
+            <dgm:ruleLst>
+              <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+            </dgm:ruleLst>
+          </dgm:layoutNode>
+        </dgm:forEach>
+      </dgm:forEach>
+    </dgm:layoutNode>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/quickStyle1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -1917,12 +4995,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1049655</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>94161</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6194346" cy="1135291"/>
+    <xdr:ext cx="5939949" cy="1328057"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="四角形: 上の 2 つの角を丸める 12">
@@ -1936,8 +5014,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6422571" y="522514"/>
-          <a:ext cx="6194346" cy="1135291"/>
+          <a:off x="3322048" y="447947"/>
+          <a:ext cx="5939949" cy="1328057"/>
         </a:xfrm>
         <a:prstGeom prst="round2SameRect">
           <a:avLst/>
@@ -1972,7 +5050,7 @@
           <a:prstTxWarp prst="textNoShape">
             <a:avLst/>
           </a:prstTxWarp>
-          <a:spAutoFit/>
+          <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
@@ -2007,7 +5085,7 @@
               <a:ea typeface="HackGen Console" panose="020B0509020203020207" pitchFamily="49" charset="-128"/>
               <a:cs typeface="HackGen Console" panose="020B0509020203020207" pitchFamily="49" charset="-128"/>
             </a:rPr>
-            <a:t>https://domain/api/v1/pdf/</a:t>
+            <a:t>https://domain/api/v1/documents/</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2048,6 +5126,946 @@
             </a:rPr>
             <a:t>設計時のポイントはエンドポイント設計、命名規則、入力チェック処理、例外処理になる</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>643890</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="図表 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29FC7C4E-68B4-4BAD-B39A-7AF9A127EFB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="楕円 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A90F1DD-7EBC-44BF-A35D-727330755C12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7376160" y="914400"/>
+          <a:ext cx="1318260" cy="1318260"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>文書属性</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>key:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>value</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="楕円 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6712C2D9-6A95-4CF3-B4AE-B91A1B9D4A19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10058400" y="914400"/>
+          <a:ext cx="1318260" cy="1318260"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>文書一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>201930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>201930</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{953E833F-E3A3-F2E0-BEFB-91B00302F2C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="6"/>
+          <a:endCxn id="14" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8694420" y="1573530"/>
+          <a:ext cx="1363980" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="466794" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A2E57B-B565-2190-F156-43BB86416181}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9113520" y="1181100"/>
+          <a:ext cx="466794" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>検索</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1972848" cy="359073"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE17B1F0-C38B-4B7C-B9BB-9A08A70A7DD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7033260" y="259080"/>
+          <a:ext cx="1972848" cy="359073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>例</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>https://domain/search/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>title</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>api</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5615940" cy="2970813"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F8378F-18EA-4BDC-A28B-F3B247F1A7C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8869680" y="2788920"/>
+          <a:ext cx="5615940" cy="2970813"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>例</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  [</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>     "document_name" : "API</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>設計書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>v2.pdf",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     "document_key" : "pdf_doc",</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>     "document_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>value" : "xjs8ksdjosdjpi",</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>     "document_atrribute" : [</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>          "title" :  "API</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>入門書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>          "api" : "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>初心者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>     ],</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>  ],</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  [</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="800">
+            <a:effectLst/>
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     "document_name" : "API</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>設計書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>初心者向け</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.docx",</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="800">
+            <a:effectLst/>
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     "document_key" : "word_doc",</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="800">
+            <a:effectLst/>
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     "document_value" : "12djo3sjsou12i",</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="800">
+            <a:effectLst/>
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     "document_atrribute" : [</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="800">
+            <a:effectLst/>
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>          "title" :  "API</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>入門書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>",</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="800">
+            <a:effectLst/>
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>          "api" : "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>設計</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>",</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="800">
+            <a:effectLst/>
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>     ],</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  ],</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
+              <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+            <a:latin typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="BIZ UDPゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2077,6 +6095,18 @@
 </file>
 
 <file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person5.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person6.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person7.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -2371,88 +6401,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:U50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33:L34"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="1.3984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="2.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="2.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.75" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.796875" style="2" customWidth="1"/>
-    <col min="9" max="11" width="8.796875" style="2"/>
-    <col min="12" max="13" width="8.796875" style="2" customWidth="1"/>
-    <col min="14" max="22" width="8.796875" style="2"/>
+    <col min="6" max="6" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.75" style="2" customWidth="1"/>
+    <col min="9" max="11" width="8.75" style="2"/>
+    <col min="12" max="13" width="8.75" style="2" customWidth="1"/>
+    <col min="14" max="22" width="8.75" style="2"/>
     <col min="23" max="23" width="21.5" style="2" customWidth="1"/>
-    <col min="24" max="24" width="16.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.796875" style="2"/>
+    <col min="24" max="24" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:21">
       <c r="C3" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" ht="18">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" ht="18.75">
       <c r="C4" s="22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21">
-      <c r="C5" s="2" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="2:21">
-      <c r="C6" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="2:21">
-      <c r="C7" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="C7" s="29"/>
     </row>
     <row r="8" spans="2:21">
-      <c r="C8" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="C8" s="29"/>
     </row>
     <row r="9" spans="2:21">
-      <c r="C9" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="C9" s="29"/>
     </row>
     <row r="10" spans="2:21">
-      <c r="C10" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="C10" s="29"/>
     </row>
     <row r="11" spans="2:21">
-      <c r="C11" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="C11" s="29"/>
     </row>
     <row r="13" spans="2:21">
       <c r="G13" s="3" t="s">
@@ -2468,42 +6466,42 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
     </row>
-    <row r="14" spans="2:21" ht="26.4">
+    <row r="14" spans="2:21" ht="27">
       <c r="C14" s="20" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
       <c r="K14" s="19"/>
       <c r="L14" s="21" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R14" s="18"/>
       <c r="S14" s="18"/>
@@ -2518,11 +6516,11 @@
         <v>0</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="25" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="9"/>
@@ -2530,14 +6528,14 @@
       <c r="J15" s="9"/>
       <c r="K15" s="14"/>
       <c r="L15" s="6" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="9" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
@@ -2546,19 +6544,17 @@
     </row>
     <row r="16" spans="2:21">
       <c r="C16" s="11"/>
-      <c r="D16" s="11" t="s">
-        <v>119</v>
-      </c>
+      <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="26"/>
       <c r="G16" s="7"/>
       <c r="K16" s="15"/>
       <c r="L16" s="7" t="s">
-        <v>28</v>
+        <v>149</v>
       </c>
       <c r="P16" s="15"/>
       <c r="Q16" s="2" t="s">
-        <v>9</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="2:21">
@@ -2569,11 +6565,11 @@
       <c r="G17" s="7"/>
       <c r="K17" s="15"/>
       <c r="L17" s="7" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="P17" s="15"/>
       <c r="Q17" s="2" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="2:21">
@@ -2583,12 +6579,10 @@
       <c r="F18" s="26"/>
       <c r="G18" s="7"/>
       <c r="K18" s="15"/>
-      <c r="L18" s="7" t="s">
-        <v>120</v>
-      </c>
+      <c r="L18" s="7"/>
       <c r="P18" s="15"/>
       <c r="Q18" s="7" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="2:21">
@@ -2600,9 +6594,7 @@
       <c r="K19" s="15"/>
       <c r="L19" s="7"/>
       <c r="P19" s="15"/>
-      <c r="Q19" s="7" t="s">
-        <v>70</v>
-      </c>
+      <c r="Q19" s="7"/>
     </row>
     <row r="20" spans="2:21">
       <c r="B20" s="10"/>
@@ -2634,31 +6626,29 @@
         <v>1</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="26" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="K21" s="15"/>
       <c r="L21" s="7"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="9" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="2:21">
       <c r="C22" s="11"/>
-      <c r="D22" s="11" t="s">
-        <v>119</v>
-      </c>
+      <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="26"/>
       <c r="G22" s="7" t="s">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="K22" s="15"/>
       <c r="L22" s="7"/>
@@ -2669,9 +6659,7 @@
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="26"/>
-      <c r="G23" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="G23" s="7"/>
       <c r="K23" s="15"/>
       <c r="L23" s="7"/>
       <c r="P23" s="15"/>
@@ -2681,9 +6669,7 @@
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="26"/>
-      <c r="G24" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="G24" s="7"/>
       <c r="K24" s="15"/>
       <c r="L24" s="7"/>
       <c r="P24" s="15"/>
@@ -2716,11 +6702,11 @@
         <v>2</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="25" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>9</v>
@@ -2737,7 +6723,7 @@
       <c r="O27" s="9"/>
       <c r="P27" s="14"/>
       <c r="Q27" s="9" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
@@ -2746,13 +6732,11 @@
     </row>
     <row r="28" spans="2:21">
       <c r="C28" s="11"/>
-      <c r="D28" s="11" t="s">
-        <v>119</v>
-      </c>
+      <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="26"/>
       <c r="G28" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K28" s="15"/>
       <c r="L28" s="7"/>
@@ -2763,9 +6747,7 @@
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="26"/>
-      <c r="G29" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="G29" s="7"/>
       <c r="K29" s="15"/>
       <c r="L29" s="7"/>
       <c r="P29" s="15"/>
@@ -2775,9 +6757,7 @@
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="26"/>
-      <c r="G30" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="G30" s="7"/>
       <c r="K30" s="15"/>
       <c r="L30" s="7"/>
       <c r="P30" s="15"/>
@@ -2822,37 +6802,35 @@
         <v>3</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="25" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>9</v>
       </c>
       <c r="K33" s="15"/>
       <c r="L33" s="7" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="P33" s="15"/>
-      <c r="Q33" s="2" t="s">
-        <v>27</v>
+      <c r="Q33" s="9" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="2:21">
       <c r="C34" s="11"/>
-      <c r="D34" s="11" t="s">
-        <v>119</v>
-      </c>
+      <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="26"/>
       <c r="G34" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K34" s="15"/>
       <c r="L34" s="7" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="P34" s="15"/>
     </row>
@@ -2861,9 +6839,7 @@
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="26"/>
-      <c r="G35" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="G35" s="7"/>
       <c r="K35" s="15"/>
       <c r="L35" s="7"/>
       <c r="P35" s="15"/>
@@ -2873,9 +6849,7 @@
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="26"/>
-      <c r="G36" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="G36" s="7"/>
       <c r="K36" s="15"/>
       <c r="L36" s="7"/>
       <c r="P36" s="15"/>
@@ -2918,14 +6892,14 @@
         <v>4</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="25" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
@@ -2937,7 +6911,7 @@
       <c r="O40" s="9"/>
       <c r="P40" s="14"/>
       <c r="Q40" s="9" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="R40" s="9"/>
       <c r="S40" s="9"/>
@@ -2946,13 +6920,11 @@
     </row>
     <row r="41" spans="2:21">
       <c r="C41" s="11"/>
-      <c r="D41" s="11" t="s">
-        <v>119</v>
-      </c>
+      <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="26"/>
       <c r="G41" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K41" s="15"/>
       <c r="L41" s="7"/>
@@ -2963,9 +6935,7 @@
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="26"/>
-      <c r="G42" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="G42" s="7"/>
       <c r="K42" s="15"/>
       <c r="L42" s="7"/>
       <c r="P42" s="15"/>
@@ -2975,9 +6945,7 @@
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="26"/>
-      <c r="G43" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="G43" s="7"/>
       <c r="K43" s="15"/>
       <c r="L43" s="7"/>
       <c r="P43" s="15"/>
@@ -3012,31 +6980,29 @@
         <v>5</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="26" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K45" s="15"/>
       <c r="L45" s="7"/>
       <c r="P45" s="15"/>
       <c r="Q45" s="9" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="2:21">
       <c r="C46" s="11"/>
-      <c r="D46" s="11" t="s">
-        <v>119</v>
-      </c>
+      <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="26"/>
       <c r="G46" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K46" s="15"/>
       <c r="L46" s="7"/>
@@ -3047,9 +7013,7 @@
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="26"/>
-      <c r="G47" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="G47" s="7"/>
       <c r="K47" s="15"/>
       <c r="L47" s="7"/>
       <c r="P47" s="15"/>
@@ -3059,9 +7023,7 @@
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="26"/>
-      <c r="G48" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="G48" s="7"/>
       <c r="K48" s="15"/>
       <c r="L48" s="7"/>
       <c r="P48" s="15"/>
@@ -3112,38 +7074,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D928852D-BF4E-4456-A854-A4FA03BE0949}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BD9B0E-3CA1-42D3-B56C-4993A1E368C4}">
-  <dimension ref="B2:K94"/>
+  <dimension ref="B2:K35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="8.796875" style="2"/>
-    <col min="10" max="10" width="8.796875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.796875" style="2"/>
+    <col min="5" max="5" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="8.75" style="2"/>
+    <col min="10" max="10" width="8.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="42" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -3159,245 +7137,245 @@
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="16" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="34" t="s">
-        <v>39</v>
-      </c>
       <c r="J6" s="35" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K6" s="40" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="H7" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>26</v>
-      </c>
       <c r="I7" s="36" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J7" s="37" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="17" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J8" s="37" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="17" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>26</v>
+        <v>92</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>24</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="17" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="17" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="38" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>21</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J11" s="37" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="17" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J12" s="39" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="14" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G13" s="38" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I13" s="38" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J13" s="39" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="42" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -3413,1751 +7391,355 @@
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="16" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="34" t="s">
-        <v>39</v>
-      </c>
       <c r="J18" s="35" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K18" s="40" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="H19" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="36" t="s">
-        <v>26</v>
-      </c>
       <c r="I19" s="36" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J19" s="37" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="17" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H20" s="36" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I20" s="36" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J20" s="37" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="17" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="E21" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="17" t="s">
+      <c r="E22" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="J23" s="39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="17" t="s">
+      <c r="D30" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="F30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="I24" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="J24" s="39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="B25" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="J25" s="39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11">
-      <c r="B28" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="2:11">
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="H30" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I30" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J30" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="K30" s="40" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="B31" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F31" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="I31" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="J31" s="37" t="s">
-        <v>31</v>
+      <c r="E31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" s="41">
+        <v>1</v>
+      </c>
+      <c r="I31" s="41">
+        <v>1000000</v>
       </c>
     </row>
     <row r="32" spans="2:11">
-      <c r="B32" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="I32" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="J32" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11">
-      <c r="B33" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E33" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H33" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="I33" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="J33" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11">
-      <c r="B34" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="I34" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="J34" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11">
-      <c r="B35" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="I35" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="J35" s="39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11">
-      <c r="B36" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="17" t="s">
+      <c r="B32" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E36" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F36" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="G36" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H36" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="I36" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="J36" s="39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11">
-      <c r="B37" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G37" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="H37" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="I37" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="J37" s="39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11">
-      <c r="B40" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-    </row>
-    <row r="41" spans="2:11">
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-    </row>
-    <row r="42" spans="2:11">
-      <c r="B42" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="F42" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="H42" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I42" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J42" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="K42" s="40" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11">
-      <c r="B43" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E43" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F43" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G43" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H43" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="I43" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="J43" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11">
-      <c r="B44" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F44" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G44" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H44" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="I44" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="J44" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="B45" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E45" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F45" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G45" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H45" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="I45" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="J45" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11">
-      <c r="B46" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E46" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F46" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H46" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="I46" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="J46" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11">
-      <c r="B47" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C47" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F47" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="G47" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="I47" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="J47" s="39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11">
-      <c r="B48" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" s="17" t="s">
+      <c r="E32" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E48" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F48" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="G48" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H48" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="I48" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="J48" s="39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11">
-      <c r="B49" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E49" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F49" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G49" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="H49" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="I49" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="J49" s="39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11">
-      <c r="B52" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-    </row>
-    <row r="53" spans="2:11">
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-    </row>
-    <row r="54" spans="2:11">
-      <c r="B54" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E54" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="F54" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="H54" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I54" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J54" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="K54" s="40" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11">
-      <c r="B55" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E55" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F55" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H55" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="I55" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="J55" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11">
-      <c r="B56" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E56" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F56" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G56" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H56" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="I56" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="J56" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11">
-      <c r="B57" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E57" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F57" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G57" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H57" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="I57" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="J57" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11">
-      <c r="B58" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E58" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F58" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="G58" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H58" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="I58" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="J58" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11">
-      <c r="B59" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E59" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F59" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="G59" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="H59" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="I59" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="J59" s="39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11">
-      <c r="B60" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C60" s="17" t="s">
+      <c r="F32" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E60" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F60" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="G60" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H60" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="I60" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="J60" s="39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11">
-      <c r="B61" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E61" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F61" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G61" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="H61" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="I61" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="J61" s="39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11">
-      <c r="B64" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-    </row>
-    <row r="65" spans="2:11">
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-    </row>
-    <row r="66" spans="2:11">
-      <c r="B66" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E66" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="F66" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="H66" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I66" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J66" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="K66" s="40" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11">
-      <c r="B67" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E67" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F67" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G67" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H67" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="I67" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="J67" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11">
-      <c r="B68" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E68" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F68" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G68" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H68" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="I68" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="J68" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11">
-      <c r="B69" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E69" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F69" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G69" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H69" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="I69" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="J69" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11">
-      <c r="B70" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E70" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F70" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="G70" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H70" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="I70" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="J70" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11">
-      <c r="B71" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E71" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F71" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="G71" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="H71" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="I71" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="J71" s="39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11">
-      <c r="B72" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C72" s="17" t="s">
+      <c r="H32" s="41">
+        <f>I31+1</f>
+        <v>1000001</v>
+      </c>
+      <c r="I32" s="41">
+        <f>I31-H31+H32</f>
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D72" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E72" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F72" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="G72" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H72" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="I72" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="J72" s="39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11">
-      <c r="B73" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E73" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F73" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G73" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="H73" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="I73" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="J73" s="39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11">
-      <c r="B76" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-    </row>
-    <row r="77" spans="2:11">
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-    </row>
-    <row r="78" spans="2:11">
-      <c r="B78" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E78" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="F78" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="H78" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="I78" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J78" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="K78" s="40" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11">
-      <c r="B79" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E79" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F79" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G79" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H79" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="I79" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="J79" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11">
-      <c r="B80" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E80" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F80" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G80" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H80" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="I80" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="J80" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10">
-      <c r="B81" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E81" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F81" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G81" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H81" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="I81" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="J81" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10">
-      <c r="B82" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E82" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F82" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="G82" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="H82" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="I82" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="J82" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10">
-      <c r="B83" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E83" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F83" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="G83" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="H83" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="I83" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="J83" s="39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10">
-      <c r="B84" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C84" s="17" t="s">
+      <c r="E33" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E84" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F84" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="G84" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H84" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="I84" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="J84" s="39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10">
-      <c r="B85" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D85" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E85" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F85" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G85" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="H85" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="I85" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="J85" s="39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="89" spans="2:10">
-      <c r="B89" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="90" spans="2:10">
-      <c r="B90" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C90" s="4">
+      <c r="F33" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H33" s="41">
+        <f t="shared" ref="H33:H35" si="0">I32+1</f>
+        <v>2000001</v>
+      </c>
+      <c r="I33" s="41">
+        <f t="shared" ref="I33:I35" si="1">I32-H32+H33</f>
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="4">
         <v>1</v>
       </c>
-      <c r="D90" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H90" s="41">
-        <v>1</v>
-      </c>
-      <c r="I90" s="41">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="91" spans="2:10">
-      <c r="B91" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C91" s="4">
-        <v>1</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H91" s="41">
-        <f>I90+1</f>
-        <v>1000001</v>
-      </c>
-      <c r="I91" s="41">
-        <f>I90-H90+H91</f>
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="92" spans="2:10">
-      <c r="B92" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C92" s="4">
-        <v>1</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H92" s="41">
-        <f t="shared" ref="H92:H94" si="0">I91+1</f>
-        <v>2000001</v>
-      </c>
-      <c r="I92" s="41">
-        <f t="shared" ref="I92:I94" si="1">I91-H91+H92</f>
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="93" spans="2:10">
-      <c r="B93" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C93" s="4">
-        <v>1</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H93" s="41">
+      <c r="D34" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34" s="41">
         <f t="shared" si="0"/>
         <v>3000001</v>
       </c>
-      <c r="I93" s="41">
+      <c r="I34" s="41">
         <f t="shared" si="1"/>
         <v>4000000</v>
       </c>
     </row>
-    <row r="94" spans="2:10">
-      <c r="B94" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C94" s="4">
+    <row r="35" spans="2:9">
+      <c r="B35" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="4">
         <v>1</v>
       </c>
-      <c r="D94" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H94" s="41">
+      <c r="D35" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H35" s="41">
         <f t="shared" si="0"/>
         <v>4000001</v>
       </c>
-      <c r="I94" s="41">
+      <c r="I35" s="41">
         <f t="shared" si="1"/>
         <v>5000000</v>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B29D2BE-8749-44F5-A441-1313A7005AF1}">
-  <dimension ref="B3:G9"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="8.796875" style="2"/>
-    <col min="2" max="2" width="11.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.796875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:7">
-      <c r="B3" s="16"/>
-      <c r="C3" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="43"/>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="43"/>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="43"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="43"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="43"/>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5166,36 +7748,133 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B29D2BE-8749-44F5-A441-1313A7005AF1}">
+  <dimension ref="B3:G9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="8.75" style="2"/>
+    <col min="2" max="2" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.75" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7">
+      <c r="B3" s="16"/>
+      <c r="C3" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="43"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="43"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="43"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="43"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="43"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39775E34-81BB-4AEB-B999-80D8DACEDD9B}">
   <dimension ref="B3:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="1"/>
-    <col min="2" max="2" width="29.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.296875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="11.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="1" width="8.75" style="1"/>
+    <col min="2" max="2" width="29.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="1" customWidth="1"/>
+    <col min="4" max="5" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5">
       <c r="C3" s="1" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D4" s="1" t="str">
         <f>C4&amp;"_doc"</f>
@@ -5204,10 +7883,10 @@
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="1" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1" t="str">
         <f t="shared" ref="D5:D8" si="0">C5&amp;"_doc"</f>
@@ -5216,7 +7895,7 @@
     </row>
     <row r="6" spans="2:5">
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5225,7 +7904,7 @@
     </row>
     <row r="7" spans="2:5">
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5234,7 +7913,7 @@
     </row>
     <row r="8" spans="2:5">
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5243,21 +7922,21 @@
     </row>
     <row r="11" spans="2:5">
       <c r="C11" s="1" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="1" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D12" s="41">
         <v>1</v>
@@ -5268,10 +7947,10 @@
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="1" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D13" s="41">
         <f>E12+1</f>
@@ -5284,7 +7963,7 @@
     </row>
     <row r="14" spans="2:5">
       <c r="C14" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D14" s="41">
         <f t="shared" ref="D14:D16" si="1">E13+1</f>
@@ -5297,7 +7976,7 @@
     </row>
     <row r="15" spans="2:5">
       <c r="C15" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D15" s="41">
         <f t="shared" si="1"/>
@@ -5310,7 +7989,7 @@
     </row>
     <row r="16" spans="2:5">
       <c r="C16" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D16" s="41">
         <f t="shared" si="1"/>
@@ -5323,195 +8002,195 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="1" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="1" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="C21" s="1" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="C22" s="1" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="C23" s="1" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="C24" s="1" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="C25" s="1" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="2:5">
       <c r="C26" s="1" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="C27" s="1" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="C28" s="1" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="C29" s="1" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="C30" s="1" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="C31" s="1" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="C32" s="1" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" s="1" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="3:5">
       <c r="C34" s="1" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="3:5">
       <c r="C35" s="1" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/設計整理_.xlsx
+++ b/設計整理_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60a3035e3d99f22e/ドキュメント/GitHub/Web_api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="293" documentId="8_{5FA4E823-0FA8-40C4-A062-22646CB94C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30C42F1E-4D0C-4E23-93DF-F84C45B2C83D}"/>
+  <xr:revisionPtr revIDLastSave="338" documentId="8_{5FA4E823-0FA8-40C4-A062-22646CB94C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{868B68DC-A4CC-4692-8A5D-7E79F0FD1BD8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="整理" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="124">
   <si>
     <t>文書と文書属性の登録</t>
     <rPh sb="0" eb="2">
@@ -130,13 +130,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・指定キー</t>
-    <rPh sb="1" eb="3">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>出力</t>
     <rPh sb="0" eb="2">
       <t>シュツリョク</t>
@@ -144,32 +137,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・指定キーと値の照合</t>
-    <rPh sb="1" eb="3">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ショウゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・指定キーに対する値</t>
-    <rPh sb="1" eb="3">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ファイル名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -177,17 +144,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・指定キーでのチェック</t>
-    <rPh sb="1" eb="3">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイルパス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -243,10 +199,6 @@
   </si>
   <si>
     <t>bigint</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>varchar(255)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -320,38 +272,6 @@
     <t>pdf</t>
   </si>
   <si>
-    <t>pdf</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>word</t>
-  </si>
-  <si>
-    <t>word</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>excel</t>
-  </si>
-  <si>
-    <t>excel</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>image</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>movie</t>
-  </si>
-  <si>
-    <t>movie</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>POST</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -361,10 +281,6 @@
   </si>
   <si>
     <t>DELETE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://domain/api/v1/documents/</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -378,10 +294,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・アップロードするファイル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>物理名</t>
     <rPh sb="0" eb="3">
       <t>ブツリメイ</t>
@@ -393,14 +305,6 @@
     <rPh sb="0" eb="3">
       <t>ロンリメイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>document_name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>document_path</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -479,10 +383,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DocumentSpecifiedKeyEnum</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テーブル名：Documents</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -490,38 +390,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ドキュメントタイプ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>doc_type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">start </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>end</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>s_value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>o_key</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>o_value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*****</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Documents</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -546,18 +414,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(ドキュメント指定キー)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DocumentValueRangeEnum</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>start</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>key</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -578,25 +434,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ドキュメントNo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ドキュメントid</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>document_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(各ドキュメントのid範囲)</t>
-    <rPh sb="1" eb="2">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ハンイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -744,35 +586,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/register</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/update/: key/: value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/update/attribute/: key/: value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/download/: key/: value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/delete/: key/: value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/search/: optional_key/: optional_value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>document_type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>document_value</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -785,69 +599,6 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・登録したファイルの内容</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・文書のキー</t>
-    <rPh sb="1" eb="3">
-      <t>ブンショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・文書の番号</t>
-    <rPh sb="1" eb="3">
-      <t>ブンショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・属性の入力があれば、そのキーと値</t>
-    <rPh sb="1" eb="3">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・文書属性のキー</t>
-    <rPh sb="1" eb="3">
-      <t>ブンショ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ゾクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・文書属性の値</t>
-    <rPh sb="1" eb="3">
-      <t>ブンショ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>アタイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -895,11 +646,86 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>attribute_key</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>attribute_value</t>
+    <t>ドキュメントタイプ</t>
+  </si>
+  <si>
+    <t>ドキュメントナンバー</t>
+  </si>
+  <si>
+    <t>document_number</t>
+  </si>
+  <si>
+    <t>document_name</t>
+  </si>
+  <si>
+    <t>/documents</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/documents/?key=value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/documents/{document_number}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/documents/{document_number}/attributes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/documents/{document_number}/file</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ドキュメントナンバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・文書属性のキーと値の組み合わせで入力</t>
+    <rPh sb="1" eb="3">
+      <t>ブンショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・アップロードするファイル詳細</t>
+    <rPh sb="13" eb="15">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・登録するファイル詳細</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://domain/api/v1/</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -907,7 +733,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -920,13 +746,6 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1153,108 +972,97 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
-    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
@@ -4457,7 +4265,7 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8516370" cy="6426456"/>
+    <xdr:ext cx="8187691" cy="7363142"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="フローチャート: 書類 10">
@@ -4471,8 +4279,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11310257" y="1219200"/>
-          <a:ext cx="8516370" cy="6426456"/>
+          <a:off x="19090821" y="2190750"/>
+          <a:ext cx="8187691" cy="7363142"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -4654,11 +4462,20 @@
               <a:ea typeface="HackGen Console" panose="020B0509020203020207" pitchFamily="49" charset="-128"/>
               <a:cs typeface="HackGen Console" panose="020B0509020203020207" pitchFamily="49" charset="-128"/>
             </a:rPr>
-            <a:t>文書の更新</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
+            <a:t>文書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="HackGen Console" panose="020B0509020203020207" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="HackGen Console" panose="020B0509020203020207" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="HackGen Console" panose="020B0509020203020207" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>ファイル</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="ja-JP" sz="1600">
               <a:solidFill>
@@ -4669,7 +4486,7 @@
               <a:ea typeface="HackGen Console" panose="020B0509020203020207" pitchFamily="49" charset="-128"/>
               <a:cs typeface="HackGen Console" panose="020B0509020203020207" pitchFamily="49" charset="-128"/>
             </a:rPr>
-            <a:t>文書属性の更新</a:t>
+            <a:t>の更新</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4684,7 +4501,46 @@
               <a:ea typeface="HackGen Console" panose="020B0509020203020207" pitchFamily="49" charset="-128"/>
               <a:cs typeface="HackGen Console" panose="020B0509020203020207" pitchFamily="49" charset="-128"/>
             </a:rPr>
-            <a:t>文書の取得</a:t>
+            <a:t>文書属性の更新</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="HackGen Console" panose="020B0509020203020207" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="HackGen Console" panose="020B0509020203020207" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="HackGen Console" panose="020B0509020203020207" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>文書</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="HackGen Console" panose="020B0509020203020207" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="HackGen Console" panose="020B0509020203020207" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="HackGen Console" panose="020B0509020203020207" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>ファイル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="HackGen Console" panose="020B0509020203020207" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="HackGen Console" panose="020B0509020203020207" pitchFamily="49" charset="-128"/>
+              <a:cs typeface="HackGen Console" panose="020B0509020203020207" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>の取得</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5085,7 +4941,7 @@
               <a:ea typeface="HackGen Console" panose="020B0509020203020207" pitchFamily="49" charset="-128"/>
               <a:cs typeface="HackGen Console" panose="020B0509020203020207" pitchFamily="49" charset="-128"/>
             </a:rPr>
-            <a:t>https://domain/api/v1/documents/</a:t>
+            <a:t>https://domain/api/v1/</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6107,6 +5963,10 @@
 </file>
 
 <file path=xl/persons/person7.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person8.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -6401,9 +6261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:U50"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
@@ -6425,12 +6283,12 @@
   <sheetData>
     <row r="3" spans="2:21">
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="18.75">
-      <c r="C4" s="22" t="s">
-        <v>53</v>
+      <c r="C4" s="21" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="2:21">
@@ -6438,19 +6296,19 @@
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="2:21">
-      <c r="C7" s="29"/>
+      <c r="C7" s="27"/>
     </row>
     <row r="8" spans="2:21">
-      <c r="C8" s="29"/>
+      <c r="C8" s="27"/>
     </row>
     <row r="9" spans="2:21">
-      <c r="C9" s="29"/>
+      <c r="C9" s="27"/>
     </row>
     <row r="10" spans="2:21">
-      <c r="C10" s="29"/>
+      <c r="C10" s="27"/>
     </row>
     <row r="11" spans="2:21">
-      <c r="C11" s="29"/>
+      <c r="C11" s="27"/>
     </row>
     <row r="13" spans="2:21">
       <c r="G13" s="3" t="s">
@@ -6466,580 +6324,562 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
     </row>
-    <row r="14" spans="2:21" ht="27">
-      <c r="C14" s="20" t="s">
+    <row r="14" spans="2:21" ht="34.5" customHeight="1">
+      <c r="C14" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="21" t="s">
+      <c r="D14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+    </row>
+    <row r="15" spans="2:21">
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-    </row>
-    <row r="15" spans="2:21">
-      <c r="B15" s="9">
-        <v>1</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
     </row>
     <row r="16" spans="2:21">
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="7"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="P16" s="15"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="6"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="P16" s="14"/>
       <c r="Q16" s="2" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="2:21">
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="7"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="6"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="6"/>
+      <c r="P17" s="14"/>
     </row>
     <row r="18" spans="2:21">
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="7"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="7"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="7" t="s">
-        <v>148</v>
-      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="6"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="6"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="6"/>
     </row>
     <row r="19" spans="2:21">
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="7"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="7"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="7"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="6"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="6"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="6"/>
     </row>
     <row r="20" spans="2:21">
-      <c r="B20" s="10"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
     </row>
     <row r="21" spans="2:21">
       <c r="B21" s="2">
         <v>2</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="K21" s="15"/>
-      <c r="L21" s="7"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="9" t="s">
-        <v>144</v>
+      <c r="D21" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="K21" s="14"/>
+      <c r="L21" s="6"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="8" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="2:21">
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K22" s="15"/>
-      <c r="L22" s="7"/>
-      <c r="P22" s="15"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="6"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="6"/>
+      <c r="P22" s="14"/>
     </row>
     <row r="23" spans="2:21">
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="7"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="7"/>
-      <c r="P23" s="15"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="6"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="6"/>
+      <c r="P23" s="14"/>
     </row>
     <row r="24" spans="2:21">
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="7"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="7"/>
-      <c r="P24" s="15"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="6"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="6"/>
+      <c r="P24" s="14"/>
     </row>
     <row r="25" spans="2:21">
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="7"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="7"/>
-      <c r="P25" s="15"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="6"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="6"/>
+      <c r="P25" s="14"/>
     </row>
     <row r="26" spans="2:21">
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="7"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="7"/>
-      <c r="P26" s="15"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="6"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="6"/>
+      <c r="P26" s="14"/>
     </row>
     <row r="27" spans="2:21">
-      <c r="B27" s="9">
+      <c r="B27" s="8">
         <v>3</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="6" t="s">
+      <c r="D27" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
     </row>
     <row r="28" spans="2:21">
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K28" s="15"/>
-      <c r="L28" s="7"/>
-      <c r="P28" s="15"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="6"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="6"/>
+      <c r="P28" s="14"/>
     </row>
     <row r="29" spans="2:21">
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="7"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="7"/>
-      <c r="P29" s="15"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="6"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="6"/>
+      <c r="P29" s="14"/>
     </row>
     <row r="30" spans="2:21">
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="7"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="7"/>
-      <c r="P30" s="15"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="6"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="6"/>
+      <c r="P30" s="14"/>
     </row>
     <row r="31" spans="2:21">
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="7"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="7"/>
-      <c r="P31" s="15"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="6"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="6"/>
+      <c r="P31" s="14"/>
     </row>
     <row r="32" spans="2:21">
-      <c r="B32" s="10"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
     </row>
     <row r="33" spans="2:21">
       <c r="B33" s="2">
         <v>4</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K33" s="15"/>
-      <c r="L33" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="9" t="s">
-        <v>144</v>
+      <c r="D33" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K33" s="14"/>
+      <c r="L33" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="2:21">
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K34" s="15"/>
-      <c r="L34" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="P34" s="15"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="6"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="6"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="6"/>
     </row>
     <row r="35" spans="2:21">
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="7"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="7"/>
-      <c r="P35" s="15"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="6"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="6"/>
+      <c r="P35" s="14"/>
     </row>
     <row r="36" spans="2:21">
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="7"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="7"/>
-      <c r="P36" s="15"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="6"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="6"/>
+      <c r="P36" s="14"/>
     </row>
     <row r="37" spans="2:21">
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="7"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="7"/>
-      <c r="P37" s="15"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="6"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="6"/>
+      <c r="P37" s="14"/>
     </row>
     <row r="38" spans="2:21">
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="7"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="7"/>
-      <c r="P38" s="15"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="6"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="6"/>
+      <c r="P38" s="14"/>
     </row>
     <row r="39" spans="2:21">
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="7"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="7"/>
-      <c r="P39" s="15"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="6"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="6"/>
+      <c r="P39" s="14"/>
     </row>
     <row r="40" spans="2:21">
-      <c r="B40" s="9">
+      <c r="B40" s="8">
         <v>5</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="9"/>
+      <c r="D40" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
     </row>
     <row r="41" spans="2:21">
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="15"/>
-      <c r="L41" s="7"/>
-      <c r="P41" s="15"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="6"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="6"/>
+      <c r="P41" s="14"/>
     </row>
     <row r="42" spans="2:21">
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="7"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="7"/>
-      <c r="P42" s="15"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="6"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="6"/>
+      <c r="P42" s="14"/>
     </row>
     <row r="43" spans="2:21">
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="7"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="7"/>
-      <c r="P43" s="15"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="6"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="6"/>
+      <c r="P43" s="14"/>
     </row>
     <row r="44" spans="2:21">
-      <c r="B44" s="10"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
     </row>
     <row r="45" spans="2:21">
       <c r="B45" s="2">
         <v>6</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K45" s="15"/>
-      <c r="L45" s="7"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="9" t="s">
-        <v>144</v>
+      <c r="D45" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K45" s="14"/>
+      <c r="L45" s="6"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="8" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="2:21">
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="15"/>
-      <c r="L46" s="7"/>
-      <c r="P46" s="15"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="6"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="6"/>
+      <c r="P46" s="14"/>
     </row>
     <row r="47" spans="2:21">
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="7"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="7"/>
-      <c r="P47" s="15"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="6"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="6"/>
+      <c r="P47" s="14"/>
     </row>
     <row r="48" spans="2:21">
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="7"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="7"/>
-      <c r="P48" s="15"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="6"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="6"/>
+      <c r="P48" s="14"/>
     </row>
     <row r="49" spans="3:16">
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="7"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="7"/>
-      <c r="P49" s="15"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="6"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="6"/>
+      <c r="P49" s="14"/>
     </row>
     <row r="50" spans="3:16">
-      <c r="F50" s="24"/>
+      <c r="F50" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -7091,11 +6931,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BD9B0E-3CA1-42D3-B56C-4993A1E368C4}">
-  <dimension ref="B2:K35"/>
+  <dimension ref="B2:K23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
@@ -7113,15 +6951,15 @@
   <sheetData>
     <row r="2" spans="2:11">
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="42" t="s">
-        <v>70</v>
+      <c r="B4" s="39" t="s">
+        <v>50</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -7136,609 +6974,434 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="34" t="s">
+      <c r="B6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="38" t="s">
-        <v>24</v>
-      </c>
       <c r="G12" s="36" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="39" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="39" t="s">
-        <v>23</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>153</v>
-      </c>
+      <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="B17" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="16" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="34" t="s">
+      <c r="E21" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="G21" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="39" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="38" t="s">
-        <v>24</v>
-      </c>
       <c r="G23" s="36" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" s="39" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="B31" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="4">
-        <v>1</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H31" s="41">
-        <v>1</v>
-      </c>
-      <c r="I31" s="41">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11">
-      <c r="B32" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4">
-        <v>1</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H32" s="41">
-        <f>I31+1</f>
-        <v>1000001</v>
-      </c>
-      <c r="I32" s="41">
-        <f>I31-H31+H32</f>
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="4">
-        <v>1</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H33" s="41">
-        <f t="shared" ref="H33:H35" si="0">I32+1</f>
-        <v>2000001</v>
-      </c>
-      <c r="I33" s="41">
-        <f t="shared" ref="I33:I35" si="1">I32-H32+H33</f>
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="4">
-        <v>1</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H34" s="41">
-        <f t="shared" si="0"/>
-        <v>3000001</v>
-      </c>
-      <c r="I34" s="41">
-        <f t="shared" si="1"/>
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="4">
-        <v>1</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H35" s="41">
-        <f t="shared" si="0"/>
-        <v>4000001</v>
-      </c>
-      <c r="I35" s="41">
-        <f t="shared" si="1"/>
-        <v>5000000</v>
+        <v>18</v>
+      </c>
+      <c r="J23" s="37" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -7761,82 +7424,82 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7">
-      <c r="B3" s="16"/>
-      <c r="C3" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>20</v>
+      <c r="B3" s="15"/>
+      <c r="C3" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="43"/>
+      <c r="B4" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="40"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="43"/>
+      <c r="B5" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="43"/>
+      <c r="B6" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="40"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="43"/>
+      <c r="B7" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="40"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="43"/>
+      <c r="B8" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="40"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="6"/>
+      <c r="B9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -7846,11 +7509,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39775E34-81BB-4AEB-B999-80D8DACEDD9B}">
-  <dimension ref="B3:E35"/>
+  <dimension ref="B3:E19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
@@ -7862,335 +7523,196 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5">
+      <c r="B3" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>68</v>
+        <v>100</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <f>C4&amp;"_doc"</f>
-        <v>pdf_doc</v>
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <f t="shared" ref="D5:D8" si="0">C5&amp;"_doc"</f>
-        <v>word_doc</v>
+        <v>87</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="C6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>excel_doc</v>
+        <v>89</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="C7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>image_doc</v>
+        <v>91</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="C8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>movie_doc</v>
+        <v>93</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="C9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="C10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="C11" s="1" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="41">
-        <v>1</v>
-      </c>
-      <c r="E12" s="41">
-        <v>1000000</v>
+        <v>70</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="41">
-        <f>E12+1</f>
-        <v>1000001</v>
-      </c>
-      <c r="E13" s="41">
-        <f>E12-D12+D13</f>
-        <v>2000000</v>
+        <v>71</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="C14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="41">
-        <f t="shared" ref="D14:D16" si="1">E13+1</f>
-        <v>2000001</v>
-      </c>
-      <c r="E14" s="41">
-        <f t="shared" ref="E14:E16" si="2">E13-D13+D14</f>
-        <v>3000000</v>
+        <v>73</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="C15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="41">
-        <f t="shared" si="1"/>
-        <v>3000001</v>
-      </c>
-      <c r="E15" s="41">
-        <f t="shared" si="2"/>
-        <v>4000000</v>
+        <v>74</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="C16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="41">
-        <f t="shared" si="1"/>
-        <v>4000001</v>
-      </c>
-      <c r="E16" s="41">
-        <f t="shared" si="2"/>
-        <v>5000000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="1" t="s">
-        <v>132</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5">
       <c r="C19" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="C21" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="C22" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="C23" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="C24" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="C25" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="C26" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="C27" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="C28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="C29" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="C30" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="C31" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="C32" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5">
-      <c r="C33" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5">
-      <c r="C34" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5">
-      <c r="C35" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/設計整理_.xlsx
+++ b/設計整理_.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60a3035e3d99f22e/ドキュメント/GitHub/Web_api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="338" documentId="8_{5FA4E823-0FA8-40C4-A062-22646CB94C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{868B68DC-A4CC-4692-8A5D-7E79F0FD1BD8}"/>
+  <xr:revisionPtr revIDLastSave="356" documentId="8_{5FA4E823-0FA8-40C4-A062-22646CB94C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6ACA0758-80C8-42A9-8791-64D375425DDD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="整理" sheetId="1" r:id="rId1"/>
     <sheet name="イメージ" sheetId="5" r:id="rId2"/>
     <sheet name="DB" sheetId="3" r:id="rId3"/>
-    <sheet name="CRUD" sheetId="4" r:id="rId4"/>
-    <sheet name="Enum" sheetId="2" r:id="rId5"/>
+    <sheet name="Enum" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="123">
   <si>
     <t>文書と文書属性の登録</t>
     <rPh sb="0" eb="2">
@@ -137,17 +136,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ファイル名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>登録</t>
     <rPh sb="0" eb="2">
       <t>トウロク</t>
@@ -198,26 +186,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>bigint</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>一意</t>
     <rPh sb="0" eb="2">
       <t>イチイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -305,32 +277,6 @@
     <rPh sb="0" eb="3">
       <t>ロンリメイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録日</t>
-    <rPh sb="0" eb="3">
-      <t>トウロクビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>更新日</t>
-    <rPh sb="0" eb="3">
-      <t>コウシンビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>created_at</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>updated_at</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>datetime</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -379,41 +325,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テーブル名：Documents</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Documents</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Pdfs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Words</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Excels</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Images</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Movies</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>key</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -423,22 +334,6 @@
   </si>
   <si>
     <t>PATCH</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int(11)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ドキュメントid</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>document_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -583,10 +478,6 @@
     <rPh sb="9" eb="12">
       <t>カクチョウシ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>document_type</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -599,26 +490,6 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>文書属性キー</t>
-    <rPh sb="0" eb="2">
-      <t>ブンショ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ゾク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>文書属性値</t>
-    <rPh sb="0" eb="4">
-      <t>ブンショゾクセイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>チ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -644,12 +515,6 @@
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ドキュメントタイプ</t>
-  </si>
-  <si>
-    <t>ドキュメントナンバー</t>
   </si>
   <si>
     <t>document_number</t>
@@ -726,6 +591,91 @@
   </si>
   <si>
     <t>https://domain/api/v1/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>文書タイプ</t>
+  </si>
+  <si>
+    <t>document_type</t>
+  </si>
+  <si>
+    <t>文書番号</t>
+  </si>
+  <si>
+    <t>文書名</t>
+  </si>
+  <si>
+    <t>文書の拡張子</t>
+  </si>
+  <si>
+    <t>document_extension</t>
+  </si>
+  <si>
+    <t>登録日</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>更新日</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>INT(11)</t>
+  </si>
+  <si>
+    <t>文書のid</t>
+  </si>
+  <si>
+    <t>document_id</t>
+  </si>
+  <si>
+    <t>文書の属性キー</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>文書の属性値</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>テーブル名：documents</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1059,7 +1009,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2378,8 +2330,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1882871" y="988563"/>
-          <a:ext cx="2364547" cy="2364547"/>
+          <a:off x="1867610" y="950352"/>
+          <a:ext cx="2273148" cy="2273148"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2449,8 +2401,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2229151" y="1334843"/>
-        <a:ext cx="1671987" cy="1671987"/>
+        <a:off x="2200505" y="1283247"/>
+        <a:ext cx="1607358" cy="1607358"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{E72BD720-83F6-452B-9ED6-319F9A631F91}">
@@ -2460,8 +2412,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2474008" y="38967"/>
-          <a:ext cx="1182273" cy="1182273"/>
+          <a:off x="2435897" y="37461"/>
+          <a:ext cx="1136574" cy="1136574"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2531,8 +2483,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2647148" y="212107"/>
-        <a:ext cx="835993" cy="835993"/>
+        <a:off x="2602344" y="203908"/>
+        <a:ext cx="803680" cy="803680"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{CFC2C32B-8197-4447-9522-09FCF3C83D8A}">
@@ -2542,8 +2494,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3678601" y="619069"/>
-          <a:ext cx="1182273" cy="1182273"/>
+          <a:off x="3593929" y="595139"/>
+          <a:ext cx="1136574" cy="1136574"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2613,8 +2565,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3851741" y="792209"/>
-        <a:ext cx="835993" cy="835993"/>
+        <a:off x="3760376" y="761586"/>
+        <a:ext cx="803680" cy="803680"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{6038407C-6DCA-49A5-A8E7-D69B2F8BC5A5}">
@@ -2624,8 +2576,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3976111" y="1922546"/>
-          <a:ext cx="1182273" cy="1182273"/>
+          <a:off x="3879939" y="1848232"/>
+          <a:ext cx="1136574" cy="1136574"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2695,8 +2647,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4149251" y="2095686"/>
-        <a:ext cx="835993" cy="835993"/>
+        <a:off x="4046386" y="2014679"/>
+        <a:ext cx="803680" cy="803680"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{817B3928-B48D-48DD-B119-EDFE44A65E06}">
@@ -2706,8 +2658,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3142507" y="2967853"/>
-          <a:ext cx="1182273" cy="1182273"/>
+          <a:off x="3078556" y="2853134"/>
+          <a:ext cx="1136574" cy="1136574"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2777,8 +2729,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3315647" y="3140993"/>
-        <a:ext cx="835993" cy="835993"/>
+        <a:off x="3245003" y="3019581"/>
+        <a:ext cx="803680" cy="803680"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C3EDEBE0-BD33-43E4-A47C-69B41F96D48B}">
@@ -2788,8 +2740,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1805508" y="2967853"/>
-          <a:ext cx="1182273" cy="1182273"/>
+          <a:off x="1793238" y="2853134"/>
+          <a:ext cx="1136574" cy="1136574"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2859,8 +2811,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1978648" y="3140993"/>
-        <a:ext cx="835993" cy="835993"/>
+        <a:off x="1959685" y="3019581"/>
+        <a:ext cx="803680" cy="803680"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{05D7A53B-6D98-42D7-993D-399BFF5499A2}">
@@ -2870,8 +2822,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="971904" y="1922546"/>
-          <a:ext cx="1182273" cy="1182273"/>
+          <a:off x="991856" y="1848232"/>
+          <a:ext cx="1136574" cy="1136574"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2941,8 +2893,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1145044" y="2095686"/>
-        <a:ext cx="835993" cy="835993"/>
+        <a:off x="1158303" y="2014679"/>
+        <a:ext cx="803680" cy="803680"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9C1597A5-04D1-4634-B55E-FDFEFD56D755}">
@@ -2952,8 +2904,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1269414" y="619069"/>
-          <a:ext cx="1182273" cy="1182273"/>
+          <a:off x="1277866" y="595139"/>
+          <a:ext cx="1136574" cy="1136574"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3023,8 +2975,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1442554" y="792209"/>
-        <a:ext cx="835993" cy="835993"/>
+        <a:off x="1444313" y="761586"/>
+        <a:ext cx="803680" cy="803680"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -5967,6 +5919,10 @@
 </file>
 
 <file path=xl/persons/person8.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person9.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -6261,34 +6217,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:U50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="1.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="2.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.3984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="2.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.69921875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.75" style="2" customWidth="1"/>
-    <col min="9" max="11" width="8.75" style="2"/>
-    <col min="12" max="13" width="8.75" style="2" customWidth="1"/>
-    <col min="14" max="22" width="8.75" style="2"/>
+    <col min="6" max="6" width="9.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.69921875" style="2" customWidth="1"/>
+    <col min="9" max="11" width="8.69921875" style="2"/>
+    <col min="12" max="13" width="8.69921875" style="2" customWidth="1"/>
+    <col min="14" max="22" width="8.69921875" style="2"/>
     <col min="23" max="23" width="21.5" style="2" customWidth="1"/>
-    <col min="24" max="24" width="16.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.75" style="2"/>
+    <col min="24" max="24" width="16.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.69921875" style="2"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:21">
       <c r="C3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" ht="18.75">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" ht="18">
       <c r="C4" s="21" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="2:21">
@@ -6324,7 +6280,7 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
@@ -6336,23 +6292,23 @@
         <v>8</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="K14" s="18"/>
       <c r="L14" s="20" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
@@ -6374,11 +6330,11 @@
         <v>0</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="24" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="8"/>
@@ -6386,14 +6342,14 @@
       <c r="J15" s="8"/>
       <c r="K15" s="13"/>
       <c r="L15" s="5" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
       <c r="P15" s="13"/>
       <c r="Q15" s="8" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
@@ -6408,11 +6364,11 @@
       <c r="G16" s="6"/>
       <c r="K16" s="14"/>
       <c r="L16" s="6" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="P16" s="14"/>
       <c r="Q16" s="2" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="2:21">
@@ -6477,20 +6433,20 @@
         <v>1</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="25" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="K21" s="14"/>
       <c r="L21" s="6"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="8" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="2:21">
@@ -6551,14 +6507,14 @@
         <v>2</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="24" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -6572,7 +6528,7 @@
       <c r="O27" s="8"/>
       <c r="P27" s="13"/>
       <c r="Q27" s="8" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="R27" s="8"/>
       <c r="S27" s="8"/>
@@ -6649,22 +6605,22 @@
         <v>3</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="24" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="K33" s="14"/>
       <c r="L33" s="6" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="P33" s="14"/>
       <c r="Q33" s="6" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="2:21">
@@ -6736,14 +6692,14 @@
         <v>4</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="24" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
@@ -6755,7 +6711,7 @@
       <c r="O40" s="8"/>
       <c r="P40" s="13"/>
       <c r="Q40" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="R40" s="8"/>
       <c r="S40" s="8"/>
@@ -6822,20 +6778,20 @@
         <v>5</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="25" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="K45" s="14"/>
       <c r="L45" s="6"/>
       <c r="P45" s="14"/>
       <c r="Q45" s="8" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="2:21">
@@ -6921,7 +6877,7 @@
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6931,35 +6887,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BD9B0E-3CA1-42D3-B56C-4993A1E368C4}">
-  <dimension ref="B2:K23"/>
+  <dimension ref="B2:K24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.19921875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="8.75" style="2"/>
-    <col min="10" max="10" width="8.75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.75" style="2"/>
+    <col min="5" max="5" width="8.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="8.69921875" style="2"/>
+    <col min="10" max="10" width="8.69921875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.69921875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="39" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -6975,433 +6931,462 @@
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="15" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="32" t="s">
+      <c r="J6" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="33" t="s">
-        <v>15</v>
-      </c>
       <c r="K6" s="38" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="16" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J7" s="35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="16" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J8" s="35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="16" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I9" s="34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J9" s="35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="16" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J10" s="35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="16" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>19</v>
+        <v>111</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>17</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="37" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>16</v>
+      <c r="B12" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>14</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="36" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>14</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="37" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="F16" s="3"/>
+      <c r="B16" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="12" t="s">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="32" t="s">
+      <c r="J18" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" s="38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" s="35" t="s">
-        <v>19</v>
+      <c r="K18" s="38" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="16" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F19" s="34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H19" s="34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J19" s="35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="16" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F20" s="34" t="s">
         <v>17</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H20" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="31" t="s">
+      <c r="G24" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="36" t="s">
+      <c r="H24" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="37" t="s">
         <v>16</v>
-      </c>
-      <c r="I21" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" s="37" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -7411,308 +7396,211 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B29D2BE-8749-44F5-A441-1313A7005AF1}">
-  <dimension ref="B3:G9"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="8.75" style="2"/>
-    <col min="2" max="2" width="11.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.75" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:7">
-      <c r="B3" s="15"/>
-      <c r="C3" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="40"/>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="40"/>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="40"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="40"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="40"/>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39775E34-81BB-4AEB-B999-80D8DACEDD9B}">
   <dimension ref="B3:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1"/>
-    <col min="2" max="2" width="29.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="1" customWidth="1"/>
-    <col min="4" max="5" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="8.69921875" style="1"/>
+    <col min="2" max="2" width="29.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="11.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5">
       <c r="B3" s="1" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="1" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="C5" s="1" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="C6" s="1" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="C7" s="1" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="C8" s="1" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="C9" s="1" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="C10" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="C11" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="C12" s="1" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="C13" s="1" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="C14" s="1" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="C15" s="1" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="C16" s="1" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="3:5">
       <c r="C17" s="1" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="3:5">
       <c r="C18" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="3:5">
       <c r="C19" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
